--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_programs\BendingPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8CE5EA-9F5D-454E-BB7B-C88BD4382ED2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAA11C-AB33-4BBF-8DCE-00DA5B08A7D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FC5290C1-EC53-46CE-8186-A94D98B6711B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC5290C1-EC53-46CE-8186-A94D98B6711B}"/>
   </bookViews>
   <sheets>
     <sheet name="Пуансон" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="244">
   <si>
     <t xml:space="preserve">№  </t>
   </si>
@@ -10010,6 +10010,30 @@
   </si>
   <si>
     <t>Code_item</t>
+  </si>
+  <si>
+    <t>Type_holder (type_holder)</t>
+  </si>
+  <si>
+    <t>Code_item (code_item)</t>
+  </si>
+  <si>
+    <t>Description (en_name_item)</t>
+  </si>
+  <si>
+    <t>Опис (ua_name_item)</t>
+  </si>
+  <si>
+    <t>Зображення (image_path)</t>
+  </si>
+  <si>
+    <t>Довжина, мм (length_item)</t>
+  </si>
+  <si>
+    <t>Вага (weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЗАКУПКА (price_item)</t>
   </si>
 </sst>
 </file>
@@ -10652,21 +10676,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC4B3B1-6B7B-4350-91DD-1715F60CF8FE}">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="10" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="36.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="44" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17" style="17" customWidth="1"/>
+    <col min="6" max="6" width="43" style="17" customWidth="1"/>
     <col min="7" max="7" width="52" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="10" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -10675,28 +10700,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>36</v>
@@ -13236,7 +13261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75395E3-B46C-4B6A-9C8F-45E6F8B0C0AE}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
@@ -13259,7 +13284,7 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>40</v>
       </c>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_programs\BendingPriceCalc\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAA11C-AB33-4BBF-8DCE-00DA5B08A7D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC5290C1-EC53-46CE-8186-A94D98B6711B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Пуансон" sheetId="1" r:id="rId1"/>
@@ -22,8 +16,8 @@
     <sheet name="DIE BYSTRONIC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -10039,8 +10033,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10420,7 +10414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -10472,7 +10466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -10666,22 +10660,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC4B3B1-6B7B-4350-91DD-1715F60CF8FE}">
-  <dimension ref="A1:X46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6" style="10" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="19" customWidth="1"/>
@@ -10695,7 +10689,7 @@
     <col min="10" max="13" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10736,7 +10730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="99.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10777,7 +10771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="99.95" customHeight="1">
       <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
@@ -10818,11 +10812,8 @@
       <c r="M3" s="26">
         <v>100</v>
       </c>
-      <c r="X3">
-        <v>87</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="99.95" customHeight="1">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>3</v>
@@ -10864,7 +10855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="99.95" customHeight="1">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10906,7 +10897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="99.95" customHeight="1">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10948,7 +10939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="99.95" customHeight="1">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10990,7 +10981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="99.95" customHeight="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11032,7 +11023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="99.95" customHeight="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11074,7 +11065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="99.95" customHeight="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11116,7 +11107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="99.95" customHeight="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11158,7 +11149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11200,7 +11191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="99.95" customHeight="1">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11242,7 +11233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="99.95" customHeight="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11284,7 +11275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11326,7 +11317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="99.95" customHeight="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11368,7 +11359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="99.95" customHeight="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11410,7 +11401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="99.95" customHeight="1">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11452,7 +11443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="99.95" customHeight="1">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -11494,7 +11485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="99.95" customHeight="1">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11536,7 +11527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="99.95" customHeight="1">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11578,7 +11569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="99.95" customHeight="1">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11620,7 +11611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="99.95" customHeight="1">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11662,7 +11653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="99.95" customHeight="1">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11704,7 +11695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="99.95" customHeight="1">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -11746,7 +11737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="99.95" customHeight="1">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -11788,7 +11779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="99.95" customHeight="1">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -11830,7 +11821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="99.95" customHeight="1">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -11872,7 +11863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="99.95" customHeight="1">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -11914,7 +11905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="99.95" customHeight="1">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -11956,7 +11947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="99.95" customHeight="1">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -11998,7 +11989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="99.95" customHeight="1">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
@@ -12012,7 +12003,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="99.95" customHeight="1">
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
@@ -12026,7 +12017,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="99.95" customHeight="1">
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="30"/>
@@ -12040,9 +12031,9 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="99.95" customHeight="1"/>
+    <row r="36" spans="2:13" ht="99.95" customHeight="1"/>
+    <row r="44" spans="2:13" ht="51">
       <c r="B44" s="18" t="s">
         <v>9</v>
       </c>
@@ -12068,7 +12059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="51">
       <c r="B45" s="18" t="s">
         <v>9</v>
       </c>
@@ -12094,7 +12085,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="51">
       <c r="B46" s="18" t="s">
         <v>9</v>
       </c>
@@ -12133,7 +12124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D116476-0070-447D-8BBB-4AFEC3B6EEEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12141,7 +12132,7 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -12154,7 +12145,7 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -12198,7 +12189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="99.95" customHeight="1">
       <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
@@ -12239,7 +12230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="99.95" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
@@ -12280,7 +12271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="99.95" customHeight="1">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -12321,7 +12312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="99.95" customHeight="1">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -12362,7 +12353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="99.95" customHeight="1">
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -12403,7 +12394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="99.95" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
@@ -12444,7 +12435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="99.95" customHeight="1">
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
@@ -12485,7 +12476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="99.95" customHeight="1">
       <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
@@ -12526,7 +12517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="99.95" customHeight="1">
       <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
@@ -12567,7 +12558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="99.95" customHeight="1">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -12608,7 +12599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="99.95" customHeight="1">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -12649,7 +12640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="99.95" customHeight="1">
       <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
@@ -12690,7 +12681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="99.95" customHeight="1">
       <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
@@ -12731,7 +12722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="99.95" customHeight="1">
       <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
@@ -12772,7 +12763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="99.95" customHeight="1">
       <c r="B16" s="18" t="s">
         <v>9</v>
       </c>
@@ -12813,7 +12804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="99.95" customHeight="1">
       <c r="B17" s="18" t="s">
         <v>9</v>
       </c>
@@ -12854,7 +12845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="99.95" customHeight="1">
       <c r="B18" s="18" t="s">
         <v>9</v>
       </c>
@@ -12895,7 +12886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="99.95" customHeight="1">
       <c r="B19" s="18" t="s">
         <v>9</v>
       </c>
@@ -12936,7 +12927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="99.95" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
@@ -12977,7 +12968,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="99.95" customHeight="1">
       <c r="B21" s="18" t="s">
         <v>9</v>
       </c>
@@ -13018,7 +13009,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="99.95" customHeight="1">
       <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
@@ -13059,7 +13050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="99.95" customHeight="1">
       <c r="B23" s="18" t="s">
         <v>9</v>
       </c>
@@ -13100,7 +13091,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="99.95" customHeight="1">
       <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
@@ -13141,7 +13132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="99.95" customHeight="1">
       <c r="B25" s="18" t="s">
         <v>9</v>
       </c>
@@ -13182,7 +13173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="99.95" customHeight="1">
       <c r="B26" s="38"/>
       <c r="C26" s="36" t="s">
         <v>230</v>
@@ -13201,7 +13192,7 @@
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
     </row>
-    <row r="27" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="99.95" customHeight="1">
       <c r="B27" s="38"/>
       <c r="C27" s="36" t="s">
         <v>231</v>
@@ -13222,7 +13213,7 @@
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
     </row>
-    <row r="28" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="99.95" customHeight="1">
       <c r="B28" s="38"/>
       <c r="C28" s="36" t="s">
         <v>232</v>
@@ -13241,10 +13232,10 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="15.75">
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="15.75">
       <c r="G30" s="32"/>
     </row>
   </sheetData>
@@ -13258,7 +13249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75395E3-B46C-4B6A-9C8F-45E6F8B0C0AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -13267,7 +13258,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -13284,7 +13275,7 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15.75">
       <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
@@ -13325,7 +13316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="99.95" customHeight="1">
       <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
@@ -13366,7 +13357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="99.95" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
@@ -13407,7 +13398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="99.95" customHeight="1">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -13448,7 +13439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="99.95" customHeight="1">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -13489,7 +13480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="99.95" customHeight="1">
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -13530,7 +13521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="99.95" customHeight="1">
       <c r="B7" s="38"/>
       <c r="C7" s="36" t="s">
         <v>223</v>
@@ -13569,7 +13560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="99.95" customHeight="1">
       <c r="B8" s="38"/>
       <c r="C8" s="36" t="s">
         <v>224</v>
@@ -13614,26 +13605,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D386AB-A6D2-433F-9761-770716729013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AB238F-884F-4EC9-BA1E-B7333AD484CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -13644,28 +13635,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6230B1-7031-46DC-A3FD-85E05B5D91C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0D53CA-A7B6-43AF-9679-86921595E1B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>118</v>
       </c>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_programs\BendingPriceCalc\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32205B4-437F-44B5-89D6-AE96B7F77236}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пуансон" sheetId="1" r:id="rId1"/>
@@ -16,8 +22,8 @@
     <sheet name="DIE BYSTRONIC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -10033,8 +10039,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10660,22 +10666,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="10" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="19" customWidth="1"/>
@@ -10689,7 +10695,7 @@
     <col min="10" max="13" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10730,7 +10736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="99.95" customHeight="1">
+    <row r="2" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10771,7 +10777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="99.95" customHeight="1">
+    <row r="3" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
@@ -10813,7 +10819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="99.95" customHeight="1">
+    <row r="4" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>3</v>
@@ -10855,7 +10861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="99.95" customHeight="1">
+    <row r="5" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10897,7 +10903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="99.95" customHeight="1">
+    <row r="6" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10939,7 +10945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="99.95" customHeight="1">
+    <row r="7" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10981,7 +10987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="99.95" customHeight="1">
+    <row r="8" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11023,7 +11029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="99.95" customHeight="1">
+    <row r="9" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11065,7 +11071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="99.95" customHeight="1">
+    <row r="10" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11107,7 +11113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="99.95" customHeight="1">
+    <row r="11" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11149,7 +11155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
+    <row r="12" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11191,7 +11197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="99.95" customHeight="1">
+    <row r="13" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11233,7 +11239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="99.95" customHeight="1">
+    <row r="14" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11275,7 +11281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
+    <row r="15" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11317,7 +11323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="99.95" customHeight="1">
+    <row r="16" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11359,7 +11365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="99.95" customHeight="1">
+    <row r="17" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11401,7 +11407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="99.95" customHeight="1">
+    <row r="18" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11443,7 +11449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="99.95" customHeight="1">
+    <row r="19" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -11485,7 +11491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="99.95" customHeight="1">
+    <row r="20" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11527,7 +11533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99.95" customHeight="1">
+    <row r="21" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11569,7 +11575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="99.95" customHeight="1">
+    <row r="22" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11611,7 +11617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="99.95" customHeight="1">
+    <row r="23" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11653,7 +11659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="99.95" customHeight="1">
+    <row r="24" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11695,7 +11701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="99.95" customHeight="1">
+    <row r="25" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -11737,7 +11743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="99.95" customHeight="1">
+    <row r="26" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -11779,7 +11785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="99.95" customHeight="1">
+    <row r="27" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -11821,7 +11827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="99.95" customHeight="1">
+    <row r="28" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -11863,7 +11869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="99.95" customHeight="1">
+    <row r="29" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -11905,7 +11911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="99.95" customHeight="1">
+    <row r="30" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -11947,7 +11953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="99.95" customHeight="1">
+    <row r="31" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -11989,7 +11995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="99.95" customHeight="1">
+    <row r="32" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
@@ -12003,7 +12009,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="2:13" ht="99.95" customHeight="1">
+    <row r="33" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
@@ -12017,7 +12023,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" ht="99.95" customHeight="1">
+    <row r="34" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="30"/>
@@ -12031,9 +12037,9 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" ht="99.95" customHeight="1"/>
-    <row r="36" spans="2:13" ht="99.95" customHeight="1"/>
-    <row r="44" spans="2:13" ht="51">
+    <row r="35" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>9</v>
       </c>
@@ -12059,7 +12065,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="51">
+    <row r="45" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>9</v>
       </c>
@@ -12085,7 +12091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="51">
+    <row r="46" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>9</v>
       </c>
@@ -12124,7 +12130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12132,7 +12138,7 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -12145,7 +12151,7 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -12189,7 +12195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="99.95" customHeight="1">
+    <row r="2" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
@@ -12230,7 +12236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="99.95" customHeight="1">
+    <row r="3" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="99.95" customHeight="1">
+    <row r="4" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -12312,7 +12318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="99.95" customHeight="1">
+    <row r="5" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -12353,7 +12359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="99.95" customHeight="1">
+    <row r="6" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -12394,7 +12400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="99.95" customHeight="1">
+    <row r="7" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
@@ -12435,7 +12441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="99.95" customHeight="1">
+    <row r="8" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
@@ -12476,7 +12482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="99.95" customHeight="1">
+    <row r="9" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
@@ -12517,7 +12523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="99.95" customHeight="1">
+    <row r="10" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
@@ -12558,7 +12564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="99.95" customHeight="1">
+    <row r="11" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
@@ -12599,7 +12605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="99.95" customHeight="1">
+    <row r="12" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
@@ -12640,7 +12646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="99.95" customHeight="1">
+    <row r="13" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
@@ -12681,7 +12687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="99.95" customHeight="1">
+    <row r="14" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
@@ -12722,7 +12728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="99.95" customHeight="1">
+    <row r="15" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
@@ -12763,7 +12769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="99.95" customHeight="1">
+    <row r="16" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>9</v>
       </c>
@@ -12804,7 +12810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="99.95" customHeight="1">
+    <row r="17" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>9</v>
       </c>
@@ -12845,7 +12851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="99.95" customHeight="1">
+    <row r="18" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>9</v>
       </c>
@@ -12886,7 +12892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="99.95" customHeight="1">
+    <row r="19" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>9</v>
       </c>
@@ -12927,7 +12933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="99.95" customHeight="1">
+    <row r="20" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
@@ -12968,7 +12974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="99.95" customHeight="1">
+    <row r="21" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>9</v>
       </c>
@@ -13009,7 +13015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="99.95" customHeight="1">
+    <row r="22" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
@@ -13050,7 +13056,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="99.95" customHeight="1">
+    <row r="23" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>9</v>
       </c>
@@ -13091,7 +13097,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="99.95" customHeight="1">
+    <row r="24" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="99.95" customHeight="1">
+    <row r="25" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>9</v>
       </c>
@@ -13173,7 +13179,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="99.95" customHeight="1">
+    <row r="26" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="C26" s="36" t="s">
         <v>230</v>
@@ -13192,7 +13198,7 @@
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
     </row>
-    <row r="27" spans="2:14" ht="99.95" customHeight="1">
+    <row r="27" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
       <c r="C27" s="36" t="s">
         <v>231</v>
@@ -13213,7 +13219,7 @@
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
     </row>
-    <row r="28" spans="2:14" ht="99.95" customHeight="1">
+    <row r="28" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="C28" s="36" t="s">
         <v>232</v>
@@ -13232,10 +13238,10 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="2:14" ht="15.75">
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="2:14" ht="15.75">
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G30" s="32"/>
     </row>
   </sheetData>
@@ -13249,7 +13255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -13258,7 +13264,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -13275,7 +13281,7 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75">
+    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
@@ -13316,7 +13322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="99.95" customHeight="1">
+    <row r="2" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
@@ -13357,7 +13363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="99.95" customHeight="1">
+    <row r="3" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
@@ -13398,7 +13404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="99.95" customHeight="1">
+    <row r="4" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -13439,7 +13445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="99.95" customHeight="1">
+    <row r="5" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -13480,7 +13486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="99.95" customHeight="1">
+    <row r="6" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -13521,7 +13527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="99.95" customHeight="1">
+    <row r="7" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="36" t="s">
         <v>223</v>
@@ -13560,7 +13566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="99.95" customHeight="1">
+    <row r="8" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="36" t="s">
         <v>224</v>
@@ -13605,26 +13611,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -13635,28 +13641,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_programs\BendingPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32205B4-437F-44B5-89D6-AE96B7F77236}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A643900F-974B-4F38-90B8-33F4B3AB016A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10420,7 +10420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -10472,7 +10472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_programs\BendingPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A643900F-974B-4F38-90B8-33F4B3AB016A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56BF9F-1268-4B8C-BFAD-5F0F15F4FD9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,12 +208,6 @@
     </r>
   </si>
   <si>
-    <t>11.201M  α=85° R=3,0 H=65,45 L = 415</t>
-  </si>
-  <si>
-    <t>11.201S  α=85° R=3,0 H=65,45 L = 835</t>
-  </si>
-  <si>
     <t>11.201.jpeg</t>
   </si>
   <si>
@@ -1192,9 +1186,6 @@
     </r>
   </si>
   <si>
-    <t>10.142M  α=60° R=0,8 H=67,00 L = 415</t>
-  </si>
-  <si>
     <t>10.142.jpg</t>
   </si>
   <si>
@@ -1361,9 +1352,6 @@
     </r>
   </si>
   <si>
-    <t>10.142S  α=60° R=0,8 H=67,00 L = 835</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1524,9 +1512,6 @@
     </r>
   </si>
   <si>
-    <t>10.143M  α=60° R=2,0 H=65,80 L = 415</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1687,9 +1672,6 @@
     </r>
   </si>
   <si>
-    <t>10.143S  α=60° R=2,0 H=65,80 L = 835</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1850,12 +1832,6 @@
     </r>
   </si>
   <si>
-    <t>10.142K  α=60° R=0,8 H=67,00 L = 800 SECTIONED</t>
-  </si>
-  <si>
-    <t>10.143K  α=60° R=2,0 H=65,80 L = 800 SECTIONED</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2219,9 +2195,6 @@
     <t>10.170.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">10.170M  α=60° R=2,0 H=65,80 L = 415 </t>
-  </si>
-  <si>
     <t>α</t>
   </si>
   <si>
@@ -2639,10 +2612,6 @@
     </r>
   </si>
   <si>
-    <t>10.170S  α=60° R=2,0 H=65,80 L = 800K
-SECTIONED</t>
-  </si>
-  <si>
     <t>10.500M</t>
   </si>
   <si>
@@ -2835,9 +2804,6 @@
     <t>10.500K</t>
   </si>
   <si>
-    <t>10.500M  α=60° R=0,8 H=115 L = 415</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3030,13 +2996,7 @@
     <t>10.506.jpg</t>
   </si>
   <si>
-    <t>10.506M  α=60° R=0,8 H=130 L = 415</t>
-  </si>
-  <si>
     <t>10.506M  α=60° R=0,8 H=130 L = 835</t>
-  </si>
-  <si>
-    <t>10.506M  α=60° R=0,8 H=130 L = 800K SETIONED</t>
   </si>
   <si>
     <r>
@@ -3771,9 +3731,6 @@
     <t>10.510.jpg</t>
   </si>
   <si>
-    <t>10.510M  α=60° R=0,8 H=115 L = 800K SETIONED</t>
-  </si>
-  <si>
     <t>10.511.jpg</t>
   </si>
   <si>
@@ -4845,27 +4802,9 @@
     </r>
   </si>
   <si>
-    <t>10.511M  α=30° R=3,0 H=80 L = 415</t>
-  </si>
-  <si>
-    <t>10.511S  α=30° R=3,0 H=80 L = 835</t>
-  </si>
-  <si>
-    <t>10.511K  α=30° R=3,0 H=80 L = 800K SETIONED</t>
-  </si>
-  <si>
-    <t>10.510S  α=60° R=0,8 H=115 L = 415</t>
-  </si>
-  <si>
     <t>10.510K  α=60° R=0,8 H=115 L = 835</t>
   </si>
   <si>
-    <t>10.500K  α=60° R=0,8 H=115 L = 800K SETIONED</t>
-  </si>
-  <si>
-    <t>10.500S  α=60° R=0,8 H=115 L = 835</t>
-  </si>
-  <si>
     <t>10.514M</t>
   </si>
   <si>
@@ -4873,15 +4812,6 @@
   </si>
   <si>
     <t>10.514K</t>
-  </si>
-  <si>
-    <t>10.514K  α=30° R=0,6 H=80 L = 800K SETIONED</t>
-  </si>
-  <si>
-    <t>10.514S  α=30° R=0,6 H=80 L = 835</t>
-  </si>
-  <si>
-    <t>10.514M  α=30° R=0,6 H=80 L = 415</t>
   </si>
   <si>
     <r>
@@ -5418,15 +5348,6 @@
     <t>10.515K</t>
   </si>
   <si>
-    <t>10.515M  α=30° R=0,6 H=140 L = 415</t>
-  </si>
-  <si>
-    <t>10.515S  α=30° R=0,6 H=140 L = 835</t>
-  </si>
-  <si>
-    <t>10.515K  α=30° R=0,6 H=140 L = 800K SETIONED</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5949,9 +5870,6 @@
     <t>DIE</t>
   </si>
   <si>
-    <t>20.210M  α=85° V = 32 R=4,0 H=60,00 L = 415</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -6112,9 +6030,6 @@
     </r>
   </si>
   <si>
-    <t>20.210S  α=85° V = 32 R=4,0 H=60,00 L = 835</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -6284,9 +6199,6 @@
     <t>20.210K</t>
   </si>
   <si>
-    <t>20.210K  α=85° V = 32 R=4,0 H=60,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
     <t>20.210.jpg</t>
   </si>
   <si>
@@ -6297,9 +6209,6 @@
   </si>
   <si>
     <t>20.211K</t>
-  </si>
-  <si>
-    <t>20.211M  α=85° V = 40 R=4,0 H=60,00 L = 415</t>
   </si>
   <si>
     <r>
@@ -6462,9 +6371,6 @@
     </r>
   </si>
   <si>
-    <t>20.211S  α=85° V = 32 R=4,0 H=60,00 L = 835</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -6625,9 +6531,6 @@
     </r>
   </si>
   <si>
-    <t>20.211K  α=85° V = 40 R=4,0 H=60,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
     <t>20.211.jpg</t>
   </si>
   <si>
@@ -6806,9 +6709,6 @@
     </r>
   </si>
   <si>
-    <t>20.212M  α=85° V = 50 R=4,0 H=60,00 L = 415</t>
-  </si>
-  <si>
     <t>20.213M</t>
   </si>
   <si>
@@ -6819,12 +6719,6 @@
   </si>
   <si>
     <t>20.213.jpg</t>
-  </si>
-  <si>
-    <t>20.212K  α=85° V = 50 R=4,0 H=60,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
-    <t>20.212S  α=85° V = 50 R=4,0 H=60,00 L = 835</t>
   </si>
   <si>
     <r>
@@ -6987,15 +6881,6 @@
     </r>
   </si>
   <si>
-    <t>20.213M  α=85° V = 63 R=5,0 H=75,00 L = 415</t>
-  </si>
-  <si>
-    <t>20.213S  α=85° V = 63 R=5,0 H=75,00 L = 835</t>
-  </si>
-  <si>
-    <t>20.213K  α=85° V = 63 R=5,0 H=75,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -7316,9 +7201,6 @@
     </r>
   </si>
   <si>
-    <t>20.214K  α=85° V = 63 R=5,0 H=75,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -7980,21 +7862,6 @@
     </r>
   </si>
   <si>
-    <t>20.215M  α=85° V = 100 R=7,0 H=95,00 L = 415</t>
-  </si>
-  <si>
-    <t>20.215S  α=85° V = 100 R=7,0 H=95,00 L = 835</t>
-  </si>
-  <si>
-    <t>20.215K  α=85° V = 100 R=7,0 H=95,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
-    <t>20.214S  α=85° V = 80 R=5,0 H=75,00 L = 835</t>
-  </si>
-  <si>
-    <t>20.214M  α=85° V = 80 R=5,0 H=75,00 L = 415</t>
-  </si>
-  <si>
     <t>20.215.jpg</t>
   </si>
   <si>
@@ -8008,12 +7875,6 @@
   </si>
   <si>
     <t>20.216D</t>
-  </si>
-  <si>
-    <t>20.216D  α=80° V = 125 R=9,0 H=103,00 L = 200</t>
-  </si>
-  <si>
-    <t>20.216M  α=80° V = 125 R=9,0 H=103,00 L = 415</t>
   </si>
   <si>
     <r>
@@ -8976,9 +8837,6 @@
     </r>
   </si>
   <si>
-    <t>20.216K    α=80° V = 125 R=9,0 H=103,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
     <t>20.217D</t>
   </si>
   <si>
@@ -9728,15 +9586,6 @@
     </r>
   </si>
   <si>
-    <t>20.217D  α=80° V = 160 R=10,0  H=130,00 L = 200</t>
-  </si>
-  <si>
-    <t>20.217M   α=80° V = 160 R=10,0  H=130,00 L = 415</t>
-  </si>
-  <si>
-    <t>20.217K    α=80° V = 160 R=10,0  H=130,00 L= 800 SECTIONED</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -9885,9 +9734,6 @@
     <t>11.201S</t>
   </si>
   <si>
-    <t>11.201K  α=85° R=3,0 H=65,45 L = 800 SECTIONED</t>
-  </si>
-  <si>
     <t>11.201K</t>
   </si>
   <si>
@@ -9895,9 +9741,6 @@
   </si>
   <si>
     <t>20.231S</t>
-  </si>
-  <si>
-    <t>20.231M  α=26° V = 10 R=1,5 H=135,00 L = 415</t>
   </si>
   <si>
     <t>20.231.jpg</t>
@@ -9910,9 +9753,6 @@
 Довжина L = 415 мм  </t>
   </si>
   <si>
-    <t>20.231S  α=26° V = 10 R=1,5 H=135,00 L = 835</t>
-  </si>
-  <si>
     <t xml:space="preserve">20.231S Матриця AMADA α=26° V = 10 R=1,5  H=135,00;
 Граничне навантаження 100Т/М;
 Матеріал Steel C45;
@@ -9941,9 +9781,6 @@
     <t>20.240S   H=80,00 L = 835</t>
   </si>
   <si>
-    <t>20.240K  H=80,00 L = 800 SECTIONED</t>
-  </si>
-  <si>
     <t xml:space="preserve">20.240M Матриця AMADA H=80,00;
 Граничне навантаження 100Т/М;
 Матеріал 42CrMo4;
@@ -9971,12 +9808,6 @@
     <t>20.264S</t>
   </si>
   <si>
-    <t>20.264M  α=35° V = 6 R=1,0 H=105,00 L = 415</t>
-  </si>
-  <si>
-    <t>20.264S  α=35° V = 6 R=1,0 H=105,00 L = 835</t>
-  </si>
-  <si>
     <t>20.264.jpg</t>
   </si>
   <si>
@@ -10006,9 +9837,6 @@
     <t>20.207.jpg</t>
   </si>
   <si>
-    <t>20.297M   α=60° V = 6 R=0,4  H=80,00 L = 415</t>
-  </si>
-  <si>
     <t>Code_item</t>
   </si>
   <si>
@@ -10034,6 +9862,235 @@
   </si>
   <si>
     <t xml:space="preserve"> ЗАКУПКА (price_item)</t>
+  </si>
+  <si>
+    <t>10.142M  α=60° R=0,8 H=67,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.142S  α=60° R=0,8 H=67,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>10.142K  α=60° R=0,8 H=67,00
+L = 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>10.143M  α=60° R=2,0 H=65,80 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.143S  α=60° R=2,0 H=65,80 
+L = 835</t>
+  </si>
+  <si>
+    <t>10.143K  α=60° R=2,0 H=65,80 
+L = 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.170M  α=60° R=2,0 H=65,80 
+L = 415 </t>
+  </si>
+  <si>
+    <t>10.506M  α=60° R=0,8 H=130 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.511M  α=30° R=3,0 H=80 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.170S  α=60° R=2,0 H=65,80 
+L = 800K
+SECTIONED</t>
+  </si>
+  <si>
+    <t>10.500M  α=60° R=0,8 H=115 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.500S  α=60° R=0,8 H=115 
+L = 835</t>
+  </si>
+  <si>
+    <t>10.500K  α=60° R=0,8 H=115 
+L = 800K SETIONED</t>
+  </si>
+  <si>
+    <t>10.506M  α=60° R=0,8 H=130 
+L = 800K SETIONED</t>
+  </si>
+  <si>
+    <t>10.510S  α=60° R=0,8 H=115 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.510M  α=60° R=0,8 H=115 
+L = 800K SETIONED</t>
+  </si>
+  <si>
+    <t>10.511S  α=30° R=3,0 H=80 
+L = 835</t>
+  </si>
+  <si>
+    <t>10.511K  α=30° R=3,0 H=80 
+L = 800K SETIONED</t>
+  </si>
+  <si>
+    <t>10.514M  α=30° R=0,6 H=80 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.514S  α=30° R=0,6 H=80 
+L = 835</t>
+  </si>
+  <si>
+    <t>10.514K  α=30° R=0,6 H=80 
+L = 800K SETIONED</t>
+  </si>
+  <si>
+    <t>10.515M  α=30° R=0,6 H=140 
+L = 415</t>
+  </si>
+  <si>
+    <t>10.515S  α=30° R=0,6 H=140 
+L = 835</t>
+  </si>
+  <si>
+    <t>10.515K  α=30° R=0,6 H=140 
+L = 800K SETIONED</t>
+  </si>
+  <si>
+    <t>11.201M  α=85° R=3,0 H=65,45 
+L = 415</t>
+  </si>
+  <si>
+    <t>11.201S  α=85° R=3,0 H=65,45 
+L = 835</t>
+  </si>
+  <si>
+    <t>11.201K  α=85° R=3,0 H=65,45 
+L = 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.210M  α=85° V = 32 R=4,0 H=60,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.210S  α=85° V = 32 R=4,0 H=60,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.210K  α=85° V = 32 R=4,0 H=60,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.211M  α=85° V = 40 R=4,0 H=60,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.211S  α=85° V = 32 R=4,0 H=60,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.211K  α=85° V = 40 R=4,0 H=60,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.212M  α=85° V = 50 R=4,0 H=60,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.212S  α=85° V = 50 R=4,0 H=60,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.212K  α=85° V = 50 R=4,0 H=60,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.213M  α=85° V = 63 R=5,0 H=75,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.213S  α=85° V = 63 R=5,0 H=75,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.213K  α=85° V = 63 R=5,0 H=75,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.214M  α=85° V = 80 R=5,0 H=75,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.214S  α=85° V = 80 R=5,0 H=75,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.214K  α=85° V = 63 R=5,0 H=75,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.215M  α=85° V = 100 R=7,0 H=95,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.215S  α=85° V = 100 R=7,0 H=95,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.215K  α=85° V = 100 R=7,0 H=95,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.216D  α=80° V = 125 R=9,0 H=103,00 
+L = 200</t>
+  </si>
+  <si>
+    <t>20.216M  α=80° V = 125 R=9,0 H=103,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.216K    α=80° V = 125 R=9,0 H=103,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.217D  α=80° V = 160 R=10,0  H=130,00 
+L = 200</t>
+  </si>
+  <si>
+    <t>20.217M   α=80° V = 160 R=10,0  H=130,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.217K    α=80° V = 160 R=10,0  H=130,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.297M   α=60° V = 6 R=0,4  H=80,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.231M  α=26° V = 10 R=1,5 H=135,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.231S  α=26° V = 10 R=1,5 H=135,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.240K  H=80,00 
+L = 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.264M  α=35° V = 6 R=1,0 H=105,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.264S  α=35° V = 6 R=1,0 H=105,00 
+L = 835</t>
   </si>
 </sst>
 </file>
@@ -10242,7 +10299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10354,6 +10411,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10676,9 +10736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10700,40 +10760,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10741,19 +10801,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="20">
         <v>415</v>
@@ -10783,19 +10843,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="20">
         <v>835</v>
@@ -10825,22 +10885,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H4" s="24">
         <v>14</v>
@@ -10867,19 +10927,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="20">
         <v>415</v>
@@ -10909,19 +10969,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="22">
         <v>835</v>
@@ -10951,22 +11011,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H7" s="24">
         <v>7.9</v>
@@ -10993,19 +11053,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="22">
         <v>415</v>
@@ -11035,19 +11095,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="22">
         <v>835</v>
@@ -11077,22 +11137,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H10" s="24">
         <v>7.9</v>
@@ -11119,19 +11179,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G11" s="22">
         <v>415</v>
@@ -11161,19 +11221,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G12" s="22">
         <v>835</v>
@@ -11203,22 +11263,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H13" s="24">
         <v>9.6999999999999993</v>
@@ -11245,19 +11305,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G14" s="22">
         <v>415</v>
@@ -11287,19 +11347,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G15" s="22">
         <v>835</v>
@@ -11329,22 +11389,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H16" s="24">
         <v>17.8</v>
@@ -11371,19 +11431,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G17" s="22">
         <v>415</v>
@@ -11413,19 +11473,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G18" s="22">
         <v>835</v>
@@ -11455,22 +11515,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H19" s="24">
         <v>20.399999999999999</v>
@@ -11497,19 +11557,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G20" s="22">
         <v>415</v>
@@ -11539,19 +11599,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>95</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G21" s="22">
         <v>835</v>
@@ -11581,22 +11641,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H22" s="24">
         <v>13.6</v>
@@ -11623,19 +11683,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G23" s="22">
         <v>415</v>
@@ -11665,19 +11725,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G24" s="22">
         <v>835</v>
@@ -11707,22 +11767,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H25" s="24">
         <v>11</v>
@@ -11749,19 +11809,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G26" s="22">
         <v>415</v>
@@ -11791,19 +11851,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G27" s="22">
         <v>835</v>
@@ -11833,22 +11893,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H28" s="24">
         <v>8.3000000000000007</v>
@@ -11875,19 +11935,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G29" s="22">
         <v>415</v>
@@ -11917,19 +11977,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G30" s="22">
         <v>835</v>
@@ -11959,22 +12019,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H31" s="24">
         <v>9.6</v>
@@ -12041,19 +12101,19 @@
     <row r="36" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G44" s="20">
         <v>415</v>
@@ -12067,19 +12127,19 @@
     </row>
     <row r="45" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G45" s="20">
         <v>835</v>
@@ -12093,22 +12153,22 @@
     </row>
     <row r="46" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F46" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H46" s="24">
         <v>10.1</v>
@@ -12134,8 +12194,8 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12156,10 +12216,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
@@ -12168,10 +12228,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>3</v>
@@ -12180,36 +12240,36 @@
         <v>4</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G2" s="20">
         <v>415</v>
@@ -12238,19 +12298,19 @@
     </row>
     <row r="3" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G3" s="20">
         <v>835</v>
@@ -12279,22 +12339,22 @@
     </row>
     <row r="4" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H4" s="37">
         <v>20.6</v>
@@ -12320,19 +12380,19 @@
     </row>
     <row r="5" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G5" s="20">
         <v>415</v>
@@ -12361,19 +12421,19 @@
     </row>
     <row r="6" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G6" s="20">
         <v>835</v>
@@ -12402,22 +12462,22 @@
     </row>
     <row r="7" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H7" s="39">
         <v>19.600000000000001</v>
@@ -12443,19 +12503,19 @@
     </row>
     <row r="8" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G8" s="20">
         <v>415</v>
@@ -12484,19 +12544,19 @@
     </row>
     <row r="9" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G9" s="20">
         <v>835</v>
@@ -12525,22 +12585,22 @@
     </row>
     <row r="10" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H10" s="39">
         <v>18</v>
@@ -12566,19 +12626,19 @@
     </row>
     <row r="11" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="G11" s="20">
         <v>415</v>
@@ -12607,19 +12667,19 @@
     </row>
     <row r="12" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="G12" s="20">
         <v>835</v>
@@ -12648,22 +12708,22 @@
     </row>
     <row r="13" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H13" s="39">
         <v>27.9</v>
@@ -12689,19 +12749,19 @@
     </row>
     <row r="14" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="G14" s="20">
         <v>415</v>
@@ -12730,19 +12790,19 @@
     </row>
     <row r="15" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="G15" s="20">
         <v>835</v>
@@ -12771,22 +12831,22 @@
     </row>
     <row r="16" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H16" s="39">
         <v>31.6</v>
@@ -12812,19 +12872,19 @@
     </row>
     <row r="17" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="G17" s="20">
         <v>415</v>
@@ -12853,19 +12913,19 @@
     </row>
     <row r="18" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="G18" s="20">
         <v>835</v>
@@ -12894,22 +12954,22 @@
     </row>
     <row r="19" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H19" s="39">
         <v>46.4</v>
@@ -12935,19 +12995,19 @@
     </row>
     <row r="20" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G20" s="20">
         <v>200</v>
@@ -12976,19 +13036,19 @@
     </row>
     <row r="21" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G21" s="20">
         <v>415</v>
@@ -13017,22 +13077,22 @@
     </row>
     <row r="22" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H22" s="39">
         <v>62.3</v>
@@ -13058,19 +13118,19 @@
     </row>
     <row r="23" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="G23" s="20">
         <v>200</v>
@@ -13099,19 +13159,19 @@
     </row>
     <row r="24" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="G24" s="20">
         <v>415</v>
@@ -13140,22 +13200,22 @@
     </row>
     <row r="25" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H25" s="37">
         <v>91.3</v>
@@ -13182,12 +13242,12 @@
     <row r="26" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="C26" s="36" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="39" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
@@ -13201,14 +13261,14 @@
     <row r="27" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
       <c r="C27" s="36" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
@@ -13222,12 +13282,12 @@
     <row r="28" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="C28" s="36" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="39" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
@@ -13258,10 +13318,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13283,10 +13343,10 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
@@ -13295,10 +13355,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>3</v>
@@ -13307,36 +13367,36 @@
         <v>4</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>207</v>
+        <v>154</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>239</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="G2" s="37">
         <v>415</v>
@@ -13365,19 +13425,19 @@
     </row>
     <row r="3" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>210</v>
+        <v>155</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>240</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="G3" s="37">
         <v>835</v>
@@ -13406,19 +13466,19 @@
     </row>
     <row r="4" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="G4" s="37">
         <v>415</v>
@@ -13447,19 +13507,19 @@
     </row>
     <row r="5" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="G5" s="11">
         <v>835</v>
@@ -13488,22 +13548,22 @@
     </row>
     <row r="6" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>219</v>
+        <v>163</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>241</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H6" s="37">
         <v>18.399999999999999</v>
@@ -13530,16 +13590,16 @@
     <row r="7" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>225</v>
+        <v>169</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="G7" s="37">
         <v>415</v>
@@ -13569,16 +13629,16 @@
     <row r="8" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>226</v>
+        <v>170</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>243</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="G8" s="11">
         <v>835</v>
@@ -13632,7 +13692,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -13664,7 +13724,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vectortool_soft\Projects\BendingToolsPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8584F76E-1F0B-48A1-92A2-A0F5EC552B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D017BC2-F22E-42CD-AFB5-6AB3DF250498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пуансон" sheetId="1" r:id="rId1"/>
@@ -39324,8 +39324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA208A9D-66EB-4EEB-A0A9-86AB1C5A9383}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39382,7 +39382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -39426,7 +39426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <f t="shared" ref="A3:A28" si="0">A2+1</f>
         <v>2</v>
@@ -39471,7 +39471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -39516,7 +39516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -39561,7 +39561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -39606,7 +39606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -39651,7 +39651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -39696,7 +39696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -39741,7 +39741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -39786,7 +39786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -39831,7 +39831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -39876,7 +39876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -39921,7 +39921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -39966,7 +39966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -40011,7 +40011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -40056,7 +40056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -40101,7 +40101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -40146,7 +40146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -40191,7 +40191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -40236,7 +40236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -40281,7 +40281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -40326,7 +40326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -40371,7 +40371,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -40416,7 +40416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="231" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -40461,7 +40461,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -40506,7 +40506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -40551,7 +40551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="241.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -49451,8 +49451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vectortool_soft\Projects\BendingToolsPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D017BC2-F22E-42CD-AFB5-6AB3DF250498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB1705-F042-4F89-9C9B-121EE54D9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12465,7 +12465,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12487,6 +12487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12553,7 +12559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12742,6 +12748,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -39324,7 +39333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA208A9D-66EB-4EEB-A0A9-86AB1C5A9383}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -49451,8 +49460,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="J2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49593,22 +49604,22 @@
       <c r="O2" s="27">
         <v>1</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="68">
         <v>0</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="68">
         <v>0</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="68">
         <v>0</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="68">
         <v>0</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="68">
         <v>0</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="68">
         <v>0</v>
       </c>
       <c r="V2" s="27">
@@ -49665,22 +49676,22 @@
       <c r="O3" s="27">
         <v>1</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="68">
         <v>0</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="68">
         <v>0</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="68">
         <v>0</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="68">
         <v>0</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="68">
         <v>0</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="68">
         <v>0</v>
       </c>
       <c r="V3" s="27">
@@ -49737,22 +49748,22 @@
       <c r="O4" s="27">
         <v>1</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="68">
         <v>0</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="68">
         <v>0</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="68">
         <v>0</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="68">
         <v>0</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="68">
         <v>0</v>
       </c>
       <c r="V4" s="27">
@@ -49809,22 +49820,22 @@
       <c r="O5" s="27">
         <v>1.5</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="68">
         <v>0</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="68">
         <v>0</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="68">
         <v>0</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="68">
         <v>0</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="68">
         <v>0</v>
       </c>
       <c r="V5" s="27">
@@ -49881,22 +49892,22 @@
       <c r="O6" s="27">
         <v>1.5</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="68">
         <v>0</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="68">
         <v>0</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="68">
         <v>0</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="68">
         <v>0</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="68">
         <v>0</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="68">
         <v>0</v>
       </c>
       <c r="V6" s="27">
@@ -49953,22 +49964,22 @@
       <c r="O7" s="27">
         <v>1.5</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="68">
         <v>0</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="68">
         <v>0</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="68">
         <v>0</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="68">
         <v>0</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="68">
         <v>0</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="68">
         <v>0</v>
       </c>
       <c r="V7" s="27">
@@ -50025,22 +50036,22 @@
       <c r="O8" s="27">
         <v>1.75</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="68">
         <v>0</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="68">
         <v>0</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="68">
         <v>0</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="68">
         <v>0</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="68">
         <v>0</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="68">
         <v>0</v>
       </c>
       <c r="V8" s="27">
@@ -50097,22 +50108,22 @@
       <c r="O9" s="27">
         <v>1.75</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="68">
         <v>0</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="68">
         <v>0</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="68">
         <v>0</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="68">
         <v>0</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="68">
         <v>0</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="68">
         <v>0</v>
       </c>
       <c r="V9" s="27">
@@ -50169,22 +50180,22 @@
       <c r="O10" s="27">
         <v>1.75</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="68">
         <v>0</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="68">
         <v>0</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="68">
         <v>0</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="68">
         <v>0</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="68">
         <v>0</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="68">
         <v>0</v>
       </c>
       <c r="V10" s="27">
@@ -50241,22 +50252,22 @@
       <c r="O11" s="27">
         <v>2.5</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="68">
         <v>0</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="68">
         <v>0</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="68">
         <v>0</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="68">
         <v>0</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="68">
         <v>0</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="68">
         <v>0</v>
       </c>
       <c r="V11" s="27">
@@ -50313,22 +50324,22 @@
       <c r="O12" s="27">
         <v>2.5</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="68">
         <v>0</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="68">
         <v>0</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="68">
         <v>0</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="68">
         <v>0</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="68">
         <v>0</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="68">
         <v>0</v>
       </c>
       <c r="V12" s="27">
@@ -50385,22 +50396,22 @@
       <c r="O13" s="27">
         <v>2.5</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="68">
         <v>0</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="68">
         <v>0</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="68">
         <v>0</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="68">
         <v>0</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="68">
         <v>0</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="68">
         <v>0</v>
       </c>
       <c r="V13" s="27">
@@ -50457,22 +50468,22 @@
       <c r="O14" s="27">
         <v>3</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="68">
         <v>0</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="68">
         <v>0</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="68">
         <v>0</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="68">
         <v>0</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="68">
         <v>0</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="68">
         <v>0</v>
       </c>
       <c r="V14" s="27">
@@ -50529,22 +50540,22 @@
       <c r="O15" s="27">
         <v>3</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="68">
         <v>0</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="68">
         <v>0</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="68">
         <v>0</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="68">
         <v>0</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="68">
         <v>0</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="68">
         <v>0</v>
       </c>
       <c r="V15" s="27">
@@ -50601,22 +50612,22 @@
       <c r="O16" s="27">
         <v>3</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="68">
         <v>0</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="68">
         <v>0</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="68">
         <v>0</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="68">
         <v>0</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="68">
         <v>0</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="68">
         <v>0</v>
       </c>
       <c r="V16" s="27">
@@ -50673,22 +50684,22 @@
       <c r="O17" s="27">
         <v>2</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="68">
         <v>0</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="68">
         <v>0</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="68">
         <v>0</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="68">
         <v>0</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="68">
         <v>0</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="68">
         <v>0</v>
       </c>
       <c r="V17" s="27">
@@ -50745,22 +50756,22 @@
       <c r="O18" s="27">
         <v>2</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="68">
         <v>0</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="68">
         <v>0</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="68">
         <v>0</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="68">
         <v>0</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="68">
         <v>0</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="68">
         <v>0</v>
       </c>
       <c r="V18" s="27">
@@ -50817,22 +50828,22 @@
       <c r="O19" s="27">
         <v>2</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="68">
         <v>0</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="68">
         <v>0</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="68">
         <v>0</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="68">
         <v>0</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="68">
         <v>0</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="68">
         <v>0</v>
       </c>
       <c r="V19" s="27">
@@ -51105,22 +51116,22 @@
       <c r="O23" s="27">
         <v>1</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="68">
         <v>0</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="68">
         <v>0</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="68">
         <v>0</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="68">
         <v>0</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="68">
         <v>0</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="68">
         <v>0</v>
       </c>
       <c r="V23" s="27">
@@ -51177,22 +51188,22 @@
       <c r="O24" s="27">
         <v>1</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="68">
         <v>0</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="68">
         <v>0</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="68">
         <v>0</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="68">
         <v>0</v>
       </c>
-      <c r="T24" s="27">
+      <c r="T24" s="68">
         <v>0</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="68">
         <v>0</v>
       </c>
       <c r="V24" s="27">
@@ -51249,22 +51260,22 @@
       <c r="O25" s="27">
         <v>1</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="68">
         <v>0</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="68">
         <v>0</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="68">
         <v>0</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="68">
         <v>0</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="68">
         <v>0</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="68">
         <v>0</v>
       </c>
       <c r="V25" s="27">
@@ -51321,22 +51332,22 @@
       <c r="O26" s="27">
         <v>1.5</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="68">
         <v>0</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="68">
         <v>0</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="68">
         <v>0</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="68">
         <v>0</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="68">
         <v>0</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="68">
         <v>0</v>
       </c>
       <c r="V26" s="27">
@@ -51393,22 +51404,22 @@
       <c r="O27" s="27">
         <v>1.5</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="68">
         <v>0</v>
       </c>
-      <c r="Q27" s="27">
+      <c r="Q27" s="68">
         <v>0</v>
       </c>
-      <c r="R27" s="27">
+      <c r="R27" s="68">
         <v>0</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27" s="68">
         <v>0</v>
       </c>
-      <c r="T27" s="27">
+      <c r="T27" s="68">
         <v>0</v>
       </c>
-      <c r="U27" s="27">
+      <c r="U27" s="68">
         <v>0</v>
       </c>
       <c r="V27" s="27">
@@ -51465,22 +51476,22 @@
       <c r="O28" s="27">
         <v>1.5</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="68">
         <v>0</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="68">
         <v>0</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="68">
         <v>0</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="68">
         <v>0</v>
       </c>
-      <c r="T28" s="27">
+      <c r="T28" s="68">
         <v>0</v>
       </c>
-      <c r="U28" s="27">
+      <c r="U28" s="68">
         <v>0</v>
       </c>
       <c r="V28" s="27">
@@ -51537,22 +51548,22 @@
       <c r="O29" s="27">
         <v>4</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="68">
         <v>0</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="68">
         <v>0</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="68">
         <v>0</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="68">
         <v>0</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T29" s="68">
         <v>0</v>
       </c>
-      <c r="U29" s="27">
+      <c r="U29" s="68">
         <v>0</v>
       </c>
       <c r="V29" s="27">
@@ -51609,22 +51620,22 @@
       <c r="O30" s="27">
         <v>4</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P30" s="68">
         <v>0</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q30" s="68">
         <v>0</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="68">
         <v>0</v>
       </c>
-      <c r="S30" s="27">
+      <c r="S30" s="68">
         <v>0</v>
       </c>
-      <c r="T30" s="27">
+      <c r="T30" s="68">
         <v>0</v>
       </c>
-      <c r="U30" s="27">
+      <c r="U30" s="68">
         <v>0</v>
       </c>
       <c r="V30" s="27">
@@ -51681,22 +51692,22 @@
       <c r="O31" s="27">
         <v>4</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="68">
         <v>0</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="68">
         <v>0</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="68">
         <v>0</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="68">
         <v>0</v>
       </c>
-      <c r="T31" s="27">
+      <c r="T31" s="68">
         <v>0</v>
       </c>
-      <c r="U31" s="27">
+      <c r="U31" s="68">
         <v>0</v>
       </c>
       <c r="V31" s="27">
@@ -51753,22 +51764,22 @@
       <c r="O32" s="27">
         <v>3</v>
       </c>
-      <c r="P32" s="27">
+      <c r="P32" s="68">
         <v>0</v>
       </c>
-      <c r="Q32" s="27">
+      <c r="Q32" s="68">
         <v>0</v>
       </c>
-      <c r="R32" s="27">
+      <c r="R32" s="68">
         <v>0</v>
       </c>
-      <c r="S32" s="27">
+      <c r="S32" s="68">
         <v>0</v>
       </c>
-      <c r="T32" s="27">
+      <c r="T32" s="68">
         <v>0</v>
       </c>
-      <c r="U32" s="27">
+      <c r="U32" s="68">
         <v>0</v>
       </c>
       <c r="V32" s="27">
@@ -51825,22 +51836,22 @@
       <c r="O33" s="27">
         <v>3</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="68">
         <v>0</v>
       </c>
-      <c r="Q33" s="27">
+      <c r="Q33" s="68">
         <v>0</v>
       </c>
-      <c r="R33" s="27">
+      <c r="R33" s="68">
         <v>0</v>
       </c>
-      <c r="S33" s="27">
+      <c r="S33" s="68">
         <v>0</v>
       </c>
-      <c r="T33" s="27">
+      <c r="T33" s="68">
         <v>0</v>
       </c>
-      <c r="U33" s="27">
+      <c r="U33" s="68">
         <v>0</v>
       </c>
       <c r="V33" s="27">
@@ -51897,22 +51908,22 @@
       <c r="O34" s="27">
         <v>3</v>
       </c>
-      <c r="P34" s="27">
+      <c r="P34" s="68">
         <v>0</v>
       </c>
-      <c r="Q34" s="27">
+      <c r="Q34" s="68">
         <v>0</v>
       </c>
-      <c r="R34" s="27">
+      <c r="R34" s="68">
         <v>0</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34" s="68">
         <v>0</v>
       </c>
-      <c r="T34" s="27">
+      <c r="T34" s="68">
         <v>0</v>
       </c>
-      <c r="U34" s="27">
+      <c r="U34" s="68">
         <v>0</v>
       </c>
       <c r="V34" s="27">
@@ -52167,7 +52178,7 @@
       <c r="I38" s="27">
         <v>177</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="68">
         <v>0</v>
       </c>
       <c r="K38" s="27">
@@ -52176,7 +52187,7 @@
       <c r="L38" s="27">
         <v>1.5</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="68">
         <v>0</v>
       </c>
       <c r="N38" s="27">
@@ -52185,7 +52196,7 @@
       <c r="O38" s="27">
         <v>2</v>
       </c>
-      <c r="P38" s="27">
+      <c r="P38" s="68">
         <v>0</v>
       </c>
       <c r="Q38" s="27">
@@ -52194,13 +52205,13 @@
       <c r="R38" s="27">
         <v>3</v>
       </c>
-      <c r="S38" s="27">
+      <c r="S38" s="68">
         <v>0</v>
       </c>
-      <c r="T38" s="27">
+      <c r="T38" s="68">
         <v>0</v>
       </c>
-      <c r="U38" s="27">
+      <c r="U38" s="68">
         <v>0</v>
       </c>
       <c r="V38" s="27">
@@ -52239,7 +52250,7 @@
       <c r="I39" s="27">
         <v>296</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="68">
         <v>0</v>
       </c>
       <c r="K39" s="27">
@@ -52248,7 +52259,7 @@
       <c r="L39" s="27">
         <v>1.5</v>
       </c>
-      <c r="M39" s="27">
+      <c r="M39" s="68">
         <v>0</v>
       </c>
       <c r="N39" s="27">
@@ -52257,7 +52268,7 @@
       <c r="O39" s="27">
         <v>2</v>
       </c>
-      <c r="P39" s="27">
+      <c r="P39" s="68">
         <v>0</v>
       </c>
       <c r="Q39" s="27">
@@ -52266,13 +52277,13 @@
       <c r="R39" s="27">
         <v>3</v>
       </c>
-      <c r="S39" s="27">
+      <c r="S39" s="68">
         <v>0</v>
       </c>
-      <c r="T39" s="27">
+      <c r="T39" s="68">
         <v>0</v>
       </c>
-      <c r="U39" s="27">
+      <c r="U39" s="68">
         <v>0</v>
       </c>
       <c r="V39" s="27">
@@ -52311,7 +52322,7 @@
       <c r="I40" s="27">
         <v>493</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="68">
         <v>0</v>
       </c>
       <c r="K40" s="27">
@@ -52320,7 +52331,7 @@
       <c r="L40" s="27">
         <v>1.5</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="68">
         <v>0</v>
       </c>
       <c r="N40" s="27">
@@ -52329,7 +52340,7 @@
       <c r="O40" s="27">
         <v>2</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="68">
         <v>0</v>
       </c>
       <c r="Q40" s="27">
@@ -52338,13 +52349,13 @@
       <c r="R40" s="27">
         <v>3</v>
       </c>
-      <c r="S40" s="27">
+      <c r="S40" s="68">
         <v>0</v>
       </c>
-      <c r="T40" s="27">
+      <c r="T40" s="68">
         <v>0</v>
       </c>
-      <c r="U40" s="27">
+      <c r="U40" s="68">
         <v>0</v>
       </c>
       <c r="V40" s="27">

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vectortool_soft\Projects\BendingToolsPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB1705-F042-4F89-9C9B-121EE54D9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14C2A1-B3D4-4B17-B9EA-563FAF3F39AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39334,7 +39334,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49460,10 +49461,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="R40" sqref="R40"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/DB_bending.xlsx
+++ b/data/DB_bending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vectortool_soft\Projects\BendingToolsPriceCalc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14C2A1-B3D4-4B17-B9EA-563FAF3F39AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A2792-E3CF-46CC-8DD8-EDD06CC597D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="2883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="2993">
   <si>
     <t xml:space="preserve">№  </t>
   </si>
@@ -12329,6 +12329,506 @@
   </si>
   <si>
     <t>20.297.jpg</t>
+  </si>
+  <si>
+    <t>20.650M</t>
+  </si>
+  <si>
+    <t>20.650K</t>
+  </si>
+  <si>
+    <t>20.650S</t>
+  </si>
+  <si>
+    <t>20.370M</t>
+  </si>
+  <si>
+    <t>20.370S</t>
+  </si>
+  <si>
+    <t>20.370K</t>
+  </si>
+  <si>
+    <t>20.440M</t>
+  </si>
+  <si>
+    <t>20.440S</t>
+  </si>
+  <si>
+    <t>20.440K</t>
+  </si>
+  <si>
+    <t>20.484M</t>
+  </si>
+  <si>
+    <t>20.484S</t>
+  </si>
+  <si>
+    <t>20.484K</t>
+  </si>
+  <si>
+    <t>20.380M</t>
+  </si>
+  <si>
+    <t>20.380S</t>
+  </si>
+  <si>
+    <t>20.380K</t>
+  </si>
+  <si>
+    <t>20.610M</t>
+  </si>
+  <si>
+    <t>20.610S</t>
+  </si>
+  <si>
+    <t>20.610K</t>
+  </si>
+  <si>
+    <t>20.680M</t>
+  </si>
+  <si>
+    <t>20.680S</t>
+  </si>
+  <si>
+    <t>20.680K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.240M Матриця AMADA  H=80,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал 42CrMo4;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.240S Матриця AMADA  H=80,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал 42CrMo4;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.240K Матриця AMADA  H=80,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал 42CrMo4;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>20.240M H=80,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.240K H=80,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>20.240S H=80,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.370.jpg</t>
+  </si>
+  <si>
+    <t>20.370M α=60° V = 63 R=5,0  H=86,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.370S α=60° V = 63 R=5,0  H=86,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.370K α=60° V = 63 R=5,0  H=86,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.370M Матриця AMADA α=60° V = 63 R=5,0 мм  H=86,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.370S Матриця AMADA α=60° V = 63 R=5,0 мм  H=86,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.370K Матриця AMADA α=60° V = 63 R=5,0 мм  H=86,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>20.380.jpg</t>
+  </si>
+  <si>
+    <t>20.380M α=45° V = 80 R=6,0  H=145,00 
+L = 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.380M Матриця AMADA α=45° V = 80 R=6,0 мм  H=145,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>20.380K α=45° V = 80 R=6,0  H=145,00  
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.380K Матриця AMADA α=45° V = 80 R=6,0 мм  H=145,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>20.440.jpg</t>
+  </si>
+  <si>
+    <t>20.484.jpg</t>
+  </si>
+  <si>
+    <t>20.440M α=45° V = 40 R=4,0  H=75,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.440K α=45° V = 40 R=4,0  H=75,00   
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.440M Матриця AMADA α=45° V=40 мм R=4,0 мм  H=75,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.440S Матриця AMADA α=45° V=40 мм R=4,0 мм  H=75,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.440S Матриця AMADA α=45° V=40 мм R=4,0 мм  H=75,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>20.610.jpg</t>
+  </si>
+  <si>
+    <t>20.484M α=45° V = 32 R=4,0  H=80,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.440S α=45° V = 40 R=4,0  H=75,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.484S α=45° V = 32 R=4,0  H=80,00  
+L = 835</t>
+  </si>
+  <si>
+    <t>20.484K α=45° V = 32 R=4,0  H=80,00   
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.484M Матриця AMADA α=45° V=32 мм R=4,0 мм  H=80,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.484S Матриця AMADA α=45° V=32 мм R=4,0 мм  H=80,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.440S Матриця AMADA α=45° V=40 мм R=4,0 мм  H=80,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>20.610M α=60° V = 100 R=10,0  H=130,00 
+L = 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.610M Матриця AMADA α=60° V=100 мм R=10,0 мм  H=130,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.610S Матриця AMADA α=60° V=100 мм R=10,0 мм  H=130,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>20.610S α=60° V = 100 R=10,0  H=130,00  
+L = 835</t>
+  </si>
+  <si>
+    <t>20.650.jpg</t>
+  </si>
+  <si>
+    <t>20.650M α=60° V = 50 R=5,0  H=75,00 
+L = 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.650M Матриця AMADA α=60° V=50 мм R=5,0 мм  H=75,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>20.650S α=60° V = 50 R=5,0  H=75,00   
+L = 835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.650S Матриця AMADA α=60° V=50 мм R=5,0 мм  H=75,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>20.650K α=60° V = 50 R=5,0  H=75,00 
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.650K Матриця AMADA α=60° V=50 мм R=5,0 мм  H=75,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>20.680.jpg</t>
+  </si>
+  <si>
+    <t>20.680M α=60° V = 80 R=6,0  H=115,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.680S α=60° V = 80 R=6,0  H=115,00   
+L = 835</t>
+  </si>
+  <si>
+    <t>20.680K α=60° V = 80 R=6,0  H=115,00  
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.680M Матриця AMADA α=60° V=80 мм R=6,0 мм  H=115,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.680S Матриця AMADA α=60° V=80 мм R=6,0 мм  H=115,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.680K Матриця AMADA α=60° V=80 мм R=6,0 мм  H=115,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>21.125K</t>
+  </si>
+  <si>
+    <t>21.125M</t>
+  </si>
+  <si>
+    <t>21.160M</t>
+  </si>
+  <si>
+    <t>21.160S</t>
+  </si>
+  <si>
+    <t>21.160K</t>
+  </si>
+  <si>
+    <t>21.200M</t>
+  </si>
+  <si>
+    <t>21.200S</t>
+  </si>
+  <si>
+    <t>21.125.jpg</t>
+  </si>
+  <si>
+    <t>21.160.jpg</t>
+  </si>
+  <si>
+    <t>21.200.jpg</t>
+  </si>
+  <si>
+    <t>20.380D α=45° V = 80 R=6,0  H=145,00 
+L = 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.380D Матриця AMADA α=45° V = 80 R=6,0 мм  H=145,00 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 200 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>21.125D</t>
+  </si>
+  <si>
+    <t>21.125D α=80° V = 125 R=9,0  H=103,00 
+L = 200</t>
+  </si>
+  <si>
+    <t>21.125M α=80° V = 125 R=9,0  H=103,00   
+L = 415</t>
+  </si>
+  <si>
+    <t>21.125K α=80° V = 125 R=9,0  H=103,00
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t>21.160D α=80° V = 160 R=10,0  H=130,00 
+L = 200</t>
+  </si>
+  <si>
+    <t>21.160S α=80° V = 160 R=10,0  H=130,00   
+L = 415</t>
+  </si>
+  <si>
+    <t>21.160K α=80° V = 160 R=10,0  H=130,00
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.160D Матриця AMADA α=80° V=160 мм R=10,0 мм  H=130,0 мм;
+Граничне навантаження 150Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 200 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.125M Матриця AMADA α=80° V=125 мм R=9,0 мм  H=103,0 мм;
+Граничне навантаження 150Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.125K Матриця AMADA α=80° V=125 мм R=9,0 мм  H=103,0 мм;
+Граничне навантаження 150Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.160S Матриця AMADA α=80° V=160 мм R=10,0 мм  H=130,0 мм;
+Граничне навантаження 150Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.160K Матриця AMADA α=80° V=160 мм R=10,0 мм  H=130,0 мм;
+Граничне навантаження 150Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.125D Матриця AMADA α=80° V=125 мм R=9,0 мм  H=103,0 мм;
+Граничне навантаження 150Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 200 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>21.200D α=70° V = 200 R=15,0  H=185,00   
+L = 200</t>
+  </si>
+  <si>
+    <t>21.200M α=70° V = 200 R=15,0  H=185,00   
+L = 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.200D Матриця AMADA α=70° V=200 мм R=15,0 мм  H=185,0 мм;
+Граничне навантаження 200Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 200 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.200M Матриця AMADA α=70° V=200 мм R=15,0 мм  H=185,0 мм;
+Граничне навантаження 200Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>20.516M</t>
+  </si>
+  <si>
+    <t>20.516S</t>
+  </si>
+  <si>
+    <t>20.516K</t>
+  </si>
+  <si>
+    <t>20.516M α=85° V = 16 R=3,5  H=80,00 
+L = 415</t>
+  </si>
+  <si>
+    <t>20.516S α=85° V = 16 R=3,5  H=80,00 
+L = 835</t>
+  </si>
+  <si>
+    <t>20.516K α=85° V = 16 R=3,5  H=80,00   
+L= 800 SECTIONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.516M Матриця AMADA α=85° V=16 мм R=3,5 мм  H=80,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 415 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.516S Матриця AMADA α=85° V=16 мм R=3,5 мм  H=80,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L = 835 мм                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.516K Матриця AMADA α=85° V=16 мм R=3,5 мм  H=80,0 мм;
+Граничне навантаження 100Т/М;
+Матеріал Steel C45;
+Індукційне гартування поверхонь зношування (52-55 HRC);
+Довжина L =100 + 150 + 50 + 40 + 20 + 15 + 15 + 10 + 400 = 800 мм  SECTIONED                                                                                                                                                                        </t>
   </si>
 </sst>
 </file>
@@ -12559,7 +13059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12751,6 +13251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13069,9 +13572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M489"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B488" sqref="B488:K659"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -39331,11 +39834,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA208A9D-66EB-4EEB-A0A9-86AB1C5A9383}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39346,9 +39849,10 @@
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -39438,7 +39942,7 @@
     </row>
     <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
-        <f t="shared" ref="A3:A28" si="0">A2+1</f>
+        <f t="shared" ref="A3:A63" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -40426,7 +40930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -40471,52 +40975,52 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>2048</v>
+        <v>2065</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>2049</v>
+        <v>2907</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2050</v>
+        <v>2904</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>2882</v>
+        <v>2068</v>
       </c>
       <c r="G26" s="14">
         <v>415</v>
       </c>
       <c r="H26" s="27">
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="I26" s="27">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="J26" s="27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K26" s="27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L26" s="27">
         <v>80</v>
       </c>
       <c r="M26" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="N26" s="27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -40525,43 +41029,43 @@
         <v>13</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>2052</v>
+        <v>2909</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2053</v>
+        <v>2905</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>2882</v>
+        <v>2068</v>
       </c>
       <c r="G27" s="14">
         <v>835</v>
       </c>
       <c r="H27" s="27">
-        <v>12.6</v>
+        <v>19.2</v>
       </c>
       <c r="I27" s="27">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="J27" s="27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K27" s="27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L27" s="27">
         <v>80</v>
       </c>
       <c r="M27" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="N27" s="27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="73.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -40570,44 +41074,1620 @@
         <v>13</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>2054</v>
+        <v>2072</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>2055</v>
+        <v>2908</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2056</v>
+        <v>2906</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>2882</v>
+        <v>2068</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>1630</v>
       </c>
       <c r="H28" s="27">
-        <v>12.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I28" s="27">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="J28" s="27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K28" s="27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28" s="27">
         <v>80</v>
       </c>
       <c r="M28" s="27">
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G29" s="14">
+        <v>415</v>
+      </c>
+      <c r="H29" s="27">
+        <v>6.3</v>
+      </c>
+      <c r="I29" s="27">
+        <v>184</v>
+      </c>
+      <c r="J29" s="27">
+        <v>60</v>
+      </c>
+      <c r="K29" s="27">
+        <v>6</v>
+      </c>
+      <c r="L29" s="27">
+        <v>80</v>
+      </c>
+      <c r="M29" s="27">
         <v>0.4</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N29" s="27">
         <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G30" s="14">
+        <v>835</v>
+      </c>
+      <c r="H30" s="27">
+        <v>12.6</v>
+      </c>
+      <c r="I30" s="27">
+        <v>315</v>
+      </c>
+      <c r="J30" s="27">
+        <v>60</v>
+      </c>
+      <c r="K30" s="27">
+        <v>6</v>
+      </c>
+      <c r="L30" s="27">
+        <v>80</v>
+      </c>
+      <c r="M30" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H31" s="27">
+        <v>12.1</v>
+      </c>
+      <c r="I31" s="27">
+        <v>450</v>
+      </c>
+      <c r="J31" s="27">
+        <v>60</v>
+      </c>
+      <c r="K31" s="27">
+        <v>6</v>
+      </c>
+      <c r="L31" s="27">
+        <v>80</v>
+      </c>
+      <c r="M31" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="N31" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G32" s="14">
+        <v>415</v>
+      </c>
+      <c r="H32" s="69">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I32" s="69">
+        <v>378</v>
+      </c>
+      <c r="J32" s="69">
+        <v>60</v>
+      </c>
+      <c r="K32" s="69">
+        <v>63</v>
+      </c>
+      <c r="L32" s="69">
+        <v>86</v>
+      </c>
+      <c r="M32" s="69">
+        <v>5</v>
+      </c>
+      <c r="N32" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G33" s="14">
+        <v>835</v>
+      </c>
+      <c r="H33" s="69">
+        <v>34</v>
+      </c>
+      <c r="I33" s="69">
+        <v>671</v>
+      </c>
+      <c r="J33" s="69">
+        <v>60</v>
+      </c>
+      <c r="K33" s="69">
+        <v>63</v>
+      </c>
+      <c r="L33" s="69">
+        <v>86</v>
+      </c>
+      <c r="M33" s="69">
+        <v>5</v>
+      </c>
+      <c r="N33" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H34" s="69">
+        <v>32.5</v>
+      </c>
+      <c r="I34" s="69">
+        <v>976</v>
+      </c>
+      <c r="J34" s="69">
+        <v>60</v>
+      </c>
+      <c r="K34" s="69">
+        <v>63</v>
+      </c>
+      <c r="L34" s="69">
+        <v>86</v>
+      </c>
+      <c r="M34" s="69">
+        <v>5</v>
+      </c>
+      <c r="N34" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>2965</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G35" s="14">
+        <v>200</v>
+      </c>
+      <c r="H35" s="69">
+        <v>24.4</v>
+      </c>
+      <c r="I35" s="69">
+        <v>420</v>
+      </c>
+      <c r="J35" s="69">
+        <v>45</v>
+      </c>
+      <c r="K35" s="69">
+        <v>80</v>
+      </c>
+      <c r="L35" s="69">
+        <v>145</v>
+      </c>
+      <c r="M35" s="69">
+        <v>6</v>
+      </c>
+      <c r="N35" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G36" s="14">
+        <v>415</v>
+      </c>
+      <c r="H36" s="69">
+        <v>50.7</v>
+      </c>
+      <c r="I36" s="69">
+        <v>680</v>
+      </c>
+      <c r="J36" s="69">
+        <v>45</v>
+      </c>
+      <c r="K36" s="69">
+        <v>80</v>
+      </c>
+      <c r="L36" s="69">
+        <v>145</v>
+      </c>
+      <c r="M36" s="69">
+        <v>6</v>
+      </c>
+      <c r="N36" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H37" s="69">
+        <v>97.7</v>
+      </c>
+      <c r="I37" s="69">
+        <v>1864</v>
+      </c>
+      <c r="J37" s="69">
+        <v>45</v>
+      </c>
+      <c r="K37" s="69">
+        <v>80</v>
+      </c>
+      <c r="L37" s="69">
+        <v>145</v>
+      </c>
+      <c r="M37" s="69">
+        <v>6</v>
+      </c>
+      <c r="N37" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G38" s="14">
+        <v>415</v>
+      </c>
+      <c r="H38" s="69">
+        <v>14.2</v>
+      </c>
+      <c r="I38" s="69">
+        <v>261</v>
+      </c>
+      <c r="J38" s="69">
+        <v>45</v>
+      </c>
+      <c r="K38" s="69">
+        <v>40</v>
+      </c>
+      <c r="L38" s="69">
+        <v>75</v>
+      </c>
+      <c r="M38" s="69">
+        <v>4</v>
+      </c>
+      <c r="N38" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>2927</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G39" s="14">
+        <v>835</v>
+      </c>
+      <c r="H39" s="69">
+        <v>28.6</v>
+      </c>
+      <c r="I39" s="69">
+        <v>446</v>
+      </c>
+      <c r="J39" s="69">
+        <v>45</v>
+      </c>
+      <c r="K39" s="69">
+        <v>40</v>
+      </c>
+      <c r="L39" s="69">
+        <v>75</v>
+      </c>
+      <c r="M39" s="69">
+        <v>4</v>
+      </c>
+      <c r="N39" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H40" s="69">
+        <v>27.4</v>
+      </c>
+      <c r="I40" s="69">
+        <v>705</v>
+      </c>
+      <c r="J40" s="69">
+        <v>45</v>
+      </c>
+      <c r="K40" s="69">
+        <v>40</v>
+      </c>
+      <c r="L40" s="69">
+        <v>75</v>
+      </c>
+      <c r="M40" s="69">
+        <v>4</v>
+      </c>
+      <c r="N40" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G41" s="14">
+        <v>415</v>
+      </c>
+      <c r="H41" s="69">
+        <v>13.6</v>
+      </c>
+      <c r="I41" s="27">
+        <v>190</v>
+      </c>
+      <c r="J41" s="69">
+        <v>45</v>
+      </c>
+      <c r="K41" s="69">
+        <v>32</v>
+      </c>
+      <c r="L41" s="69">
+        <v>80</v>
+      </c>
+      <c r="M41" s="69">
+        <v>4</v>
+      </c>
+      <c r="N41" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G42" s="14">
+        <v>835</v>
+      </c>
+      <c r="H42" s="69">
+        <v>27.4</v>
+      </c>
+      <c r="I42" s="69">
+        <v>315</v>
+      </c>
+      <c r="J42" s="69">
+        <v>45</v>
+      </c>
+      <c r="K42" s="69">
+        <v>32</v>
+      </c>
+      <c r="L42" s="69">
+        <v>80</v>
+      </c>
+      <c r="M42" s="69">
+        <v>4</v>
+      </c>
+      <c r="N42" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H43" s="69">
+        <v>26.3</v>
+      </c>
+      <c r="I43" s="69">
+        <v>502</v>
+      </c>
+      <c r="J43" s="69">
+        <v>45</v>
+      </c>
+      <c r="K43" s="69">
+        <v>32</v>
+      </c>
+      <c r="L43" s="69">
+        <v>80</v>
+      </c>
+      <c r="M43" s="69">
+        <v>4</v>
+      </c>
+      <c r="N43" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G44" s="14">
+        <v>415</v>
+      </c>
+      <c r="H44" s="69">
+        <v>8.1</v>
+      </c>
+      <c r="I44" s="69">
+        <v>172</v>
+      </c>
+      <c r="J44" s="69">
+        <v>85</v>
+      </c>
+      <c r="K44" s="69">
+        <v>16</v>
+      </c>
+      <c r="L44" s="69">
+        <v>80</v>
+      </c>
+      <c r="M44" s="69">
+        <v>3.5</v>
+      </c>
+      <c r="N44" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G45" s="14">
+        <v>835</v>
+      </c>
+      <c r="H45" s="69">
+        <v>16.3</v>
+      </c>
+      <c r="I45" s="69">
+        <v>291</v>
+      </c>
+      <c r="J45" s="69">
+        <v>85</v>
+      </c>
+      <c r="K45" s="69">
+        <v>16</v>
+      </c>
+      <c r="L45" s="69">
+        <v>80</v>
+      </c>
+      <c r="M45" s="69">
+        <v>3.5</v>
+      </c>
+      <c r="N45" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H46" s="69">
+        <v>15.7</v>
+      </c>
+      <c r="I46" s="69">
+        <v>426</v>
+      </c>
+      <c r="J46" s="69">
+        <v>85</v>
+      </c>
+      <c r="K46" s="69">
+        <v>16</v>
+      </c>
+      <c r="L46" s="69">
+        <v>80</v>
+      </c>
+      <c r="M46" s="69">
+        <v>3.5</v>
+      </c>
+      <c r="N46" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G47" s="14">
+        <v>415</v>
+      </c>
+      <c r="H47" s="69">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I47" s="69">
+        <v>599</v>
+      </c>
+      <c r="J47" s="69">
+        <v>60</v>
+      </c>
+      <c r="K47" s="69">
+        <v>100</v>
+      </c>
+      <c r="L47" s="69">
+        <v>130</v>
+      </c>
+      <c r="M47" s="69">
+        <v>10</v>
+      </c>
+      <c r="N47" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G48" s="14">
+        <v>835</v>
+      </c>
+      <c r="H48" s="69">
+        <v>73</v>
+      </c>
+      <c r="I48" s="69">
+        <v>1067</v>
+      </c>
+      <c r="J48" s="69">
+        <v>60</v>
+      </c>
+      <c r="K48" s="69">
+        <v>100</v>
+      </c>
+      <c r="L48" s="69">
+        <v>130</v>
+      </c>
+      <c r="M48" s="69">
+        <v>10</v>
+      </c>
+      <c r="N48" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H49" s="69">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I49" s="69">
+        <v>1667</v>
+      </c>
+      <c r="J49" s="69">
+        <v>60</v>
+      </c>
+      <c r="K49" s="69">
+        <v>100</v>
+      </c>
+      <c r="L49" s="69">
+        <v>130</v>
+      </c>
+      <c r="M49" s="69">
+        <v>10</v>
+      </c>
+      <c r="N49" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G50" s="14">
+        <v>415</v>
+      </c>
+      <c r="H50" s="69">
+        <v>13.9</v>
+      </c>
+      <c r="I50" s="69">
+        <v>319</v>
+      </c>
+      <c r="J50" s="69">
+        <v>60</v>
+      </c>
+      <c r="K50" s="69">
+        <v>63</v>
+      </c>
+      <c r="L50" s="69">
+        <v>86</v>
+      </c>
+      <c r="M50" s="69">
+        <v>5</v>
+      </c>
+      <c r="N50" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G51" s="14">
+        <v>835</v>
+      </c>
+      <c r="H51" s="69">
+        <v>27.9</v>
+      </c>
+      <c r="I51" s="69">
+        <v>563</v>
+      </c>
+      <c r="J51" s="69">
+        <v>60</v>
+      </c>
+      <c r="K51" s="69">
+        <v>63</v>
+      </c>
+      <c r="L51" s="69">
+        <v>86</v>
+      </c>
+      <c r="M51" s="69">
+        <v>5</v>
+      </c>
+      <c r="N51" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H52" s="69">
+        <v>26.7</v>
+      </c>
+      <c r="I52" s="69">
+        <v>822</v>
+      </c>
+      <c r="J52" s="69">
+        <v>60</v>
+      </c>
+      <c r="K52" s="69">
+        <v>63</v>
+      </c>
+      <c r="L52" s="69">
+        <v>86</v>
+      </c>
+      <c r="M52" s="69">
+        <v>5</v>
+      </c>
+      <c r="N52" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G53" s="14">
+        <v>415</v>
+      </c>
+      <c r="H53" s="69">
+        <v>29.9</v>
+      </c>
+      <c r="I53" s="69">
+        <v>556</v>
+      </c>
+      <c r="J53" s="69">
+        <v>60</v>
+      </c>
+      <c r="K53" s="69">
+        <v>80</v>
+      </c>
+      <c r="L53" s="69">
+        <v>115</v>
+      </c>
+      <c r="M53" s="69">
+        <v>6</v>
+      </c>
+      <c r="N53" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G54" s="14">
+        <v>835</v>
+      </c>
+      <c r="H54" s="69">
+        <v>60.1</v>
+      </c>
+      <c r="I54" s="69">
+        <v>956</v>
+      </c>
+      <c r="J54" s="69">
+        <v>60</v>
+      </c>
+      <c r="K54" s="69">
+        <v>80</v>
+      </c>
+      <c r="L54" s="69">
+        <v>115</v>
+      </c>
+      <c r="M54" s="69">
+        <v>6</v>
+      </c>
+      <c r="N54" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H55" s="69">
+        <v>57.6</v>
+      </c>
+      <c r="I55" s="69">
+        <v>1421</v>
+      </c>
+      <c r="J55" s="69">
+        <v>60</v>
+      </c>
+      <c r="K55" s="69">
+        <v>80</v>
+      </c>
+      <c r="L55" s="69">
+        <v>115</v>
+      </c>
+      <c r="M55" s="69">
+        <v>6</v>
+      </c>
+      <c r="N55" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G56" s="14">
+        <v>200</v>
+      </c>
+      <c r="H56" s="69">
+        <v>14.6</v>
+      </c>
+      <c r="I56" s="69">
+        <v>240</v>
+      </c>
+      <c r="J56" s="69">
+        <v>80</v>
+      </c>
+      <c r="K56" s="69">
+        <v>125</v>
+      </c>
+      <c r="L56" s="69">
+        <v>103</v>
+      </c>
+      <c r="M56" s="69">
+        <v>9</v>
+      </c>
+      <c r="N56" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G57" s="14">
+        <v>415</v>
+      </c>
+      <c r="H57" s="69">
+        <v>30.4</v>
+      </c>
+      <c r="I57" s="69">
+        <v>426</v>
+      </c>
+      <c r="J57" s="69">
+        <v>80</v>
+      </c>
+      <c r="K57" s="69">
+        <v>125</v>
+      </c>
+      <c r="L57" s="69">
+        <v>103</v>
+      </c>
+      <c r="M57" s="69">
+        <v>9</v>
+      </c>
+      <c r="N57" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H58" s="69">
+        <v>58.5</v>
+      </c>
+      <c r="I58" s="69">
+        <v>1463</v>
+      </c>
+      <c r="J58" s="69">
+        <v>80</v>
+      </c>
+      <c r="K58" s="69">
+        <v>125</v>
+      </c>
+      <c r="L58" s="69">
+        <v>103</v>
+      </c>
+      <c r="M58" s="69">
+        <v>9</v>
+      </c>
+      <c r="N58" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G59" s="14">
+        <v>200</v>
+      </c>
+      <c r="H59" s="69">
+        <v>21.9</v>
+      </c>
+      <c r="I59" s="69">
+        <v>323</v>
+      </c>
+      <c r="J59" s="69">
+        <v>80</v>
+      </c>
+      <c r="K59" s="69">
+        <v>160</v>
+      </c>
+      <c r="L59" s="69">
+        <v>130</v>
+      </c>
+      <c r="M59" s="69">
+        <v>10</v>
+      </c>
+      <c r="N59" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G60" s="14">
+        <v>415</v>
+      </c>
+      <c r="H60" s="69">
+        <v>45.4</v>
+      </c>
+      <c r="I60" s="69">
+        <v>575</v>
+      </c>
+      <c r="J60" s="69">
+        <v>80</v>
+      </c>
+      <c r="K60" s="69">
+        <v>160</v>
+      </c>
+      <c r="L60" s="69">
+        <v>130</v>
+      </c>
+      <c r="M60" s="69">
+        <v>10</v>
+      </c>
+      <c r="N60" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H61" s="69">
+        <v>87.5</v>
+      </c>
+      <c r="I61" s="69">
+        <v>1870</v>
+      </c>
+      <c r="J61" s="69">
+        <v>80</v>
+      </c>
+      <c r="K61" s="69">
+        <v>160</v>
+      </c>
+      <c r="L61" s="69">
+        <v>130</v>
+      </c>
+      <c r="M61" s="69">
+        <v>10</v>
+      </c>
+      <c r="N61" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G62" s="14">
+        <v>200</v>
+      </c>
+      <c r="H62" s="69">
+        <v>43.3</v>
+      </c>
+      <c r="I62" s="69">
+        <v>660</v>
+      </c>
+      <c r="J62" s="69">
+        <v>70</v>
+      </c>
+      <c r="K62" s="69">
+        <v>200</v>
+      </c>
+      <c r="L62" s="69">
+        <v>185</v>
+      </c>
+      <c r="M62" s="69">
+        <v>15</v>
+      </c>
+      <c r="N62" s="69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G63" s="14">
+        <v>415</v>
+      </c>
+      <c r="H63" s="69">
+        <v>89.9</v>
+      </c>
+      <c r="I63" s="69">
+        <v>1188</v>
+      </c>
+      <c r="J63" s="69">
+        <v>70</v>
+      </c>
+      <c r="K63" s="69">
+        <v>200</v>
+      </c>
+      <c r="L63" s="69">
+        <v>185</v>
+      </c>
+      <c r="M63" s="69">
+        <v>15</v>
+      </c>
+      <c r="N63" s="69">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -49464,7 +51544,7 @@
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
